--- a/output/OUTPUT5_A01.xlsx
+++ b/output/OUTPUT5_A01.xlsx
@@ -69,7 +69,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -132,6 +132,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -144,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -196,7 +216,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -206,10 +235,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -218,13 +253,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -628,12 +666,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="7" customWidth="1" style="19" min="1" max="2"/>
+    <col width="7" customWidth="1" min="1" max="2"/>
     <col width="22.81640625" customWidth="1" style="1" min="3" max="30"/>
   </cols>
   <sheetData>
@@ -729,8 +767,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="16" t="inlineStr">
+    <row r="2" ht="14.5" customHeight="1">
+      <c r="A2" s="19" t="inlineStr">
         <is>
           <t>L
 E
@@ -880,40 +918,40 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="35" customHeight="1" s="19">
-      <c r="A3" s="24" t="n"/>
-      <c r="B3" s="25" t="n"/>
-      <c r="C3" s="26" t="n"/>
-      <c r="D3" s="26" t="n"/>
-      <c r="E3" s="26" t="n"/>
-      <c r="F3" s="25" t="n"/>
-      <c r="G3" s="25" t="n"/>
-      <c r="H3" s="25" t="n"/>
-      <c r="I3" s="25" t="n"/>
-      <c r="J3" s="25" t="n"/>
-      <c r="K3" s="25" t="n"/>
-      <c r="L3" s="25" t="n"/>
-      <c r="M3" s="25" t="n"/>
-      <c r="N3" s="25" t="n"/>
-      <c r="O3" s="25" t="n"/>
-      <c r="P3" s="25" t="n"/>
-      <c r="Q3" s="25" t="n"/>
-      <c r="R3" s="25" t="n"/>
-      <c r="S3" s="25" t="n"/>
-      <c r="T3" s="25" t="n"/>
-      <c r="U3" s="25" t="n"/>
-      <c r="V3" s="25" t="n"/>
-      <c r="W3" s="25" t="n"/>
-      <c r="X3" s="25" t="n"/>
-      <c r="Y3" s="25" t="n"/>
-      <c r="Z3" s="25" t="n"/>
-      <c r="AA3" s="25" t="n"/>
-      <c r="AB3" s="25" t="n"/>
-      <c r="AC3" s="25" t="n"/>
-      <c r="AD3" s="25" t="n"/>
+    <row r="3" ht="35" customHeight="1">
+      <c r="A3" s="29" t="n"/>
+      <c r="B3" s="30" t="n"/>
+      <c r="C3" s="31" t="n"/>
+      <c r="D3" s="31" t="n"/>
+      <c r="E3" s="31" t="n"/>
+      <c r="F3" s="30" t="n"/>
+      <c r="G3" s="30" t="n"/>
+      <c r="H3" s="30" t="n"/>
+      <c r="I3" s="30" t="n"/>
+      <c r="J3" s="30" t="n"/>
+      <c r="K3" s="30" t="n"/>
+      <c r="L3" s="30" t="n"/>
+      <c r="M3" s="30" t="n"/>
+      <c r="N3" s="30" t="n"/>
+      <c r="O3" s="30" t="n"/>
+      <c r="P3" s="30" t="n"/>
+      <c r="Q3" s="30" t="n"/>
+      <c r="R3" s="30" t="n"/>
+      <c r="S3" s="30" t="n"/>
+      <c r="T3" s="30" t="n"/>
+      <c r="U3" s="30" t="n"/>
+      <c r="V3" s="30" t="n"/>
+      <c r="W3" s="30" t="n"/>
+      <c r="X3" s="30" t="n"/>
+      <c r="Y3" s="30" t="n"/>
+      <c r="Z3" s="30" t="n"/>
+      <c r="AA3" s="30" t="n"/>
+      <c r="AB3" s="30" t="n"/>
+      <c r="AC3" s="30" t="n"/>
+      <c r="AD3" s="30" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="n"/>
+      <c r="A4" s="21" t="n"/>
       <c r="B4" s="16" t="inlineStr">
         <is>
           <t>F</t>
@@ -1052,40 +1090,56 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="35" customHeight="1" s="19">
-      <c r="A5" s="24" t="n"/>
-      <c r="B5" s="25" t="n"/>
-      <c r="C5" s="26" t="n"/>
-      <c r="D5" s="26" t="n"/>
-      <c r="E5" s="26" t="n"/>
-      <c r="F5" s="25" t="n"/>
-      <c r="G5" s="25" t="n"/>
-      <c r="H5" s="25" t="n"/>
-      <c r="I5" s="25" t="n"/>
-      <c r="J5" s="25" t="n"/>
-      <c r="K5" s="25" t="n"/>
-      <c r="L5" s="25" t="n"/>
-      <c r="M5" s="25" t="n"/>
-      <c r="N5" s="25" t="n"/>
-      <c r="O5" s="25" t="n"/>
-      <c r="P5" s="25" t="n"/>
-      <c r="Q5" s="25" t="n"/>
-      <c r="R5" s="25" t="n"/>
-      <c r="S5" s="25" t="n"/>
-      <c r="T5" s="25" t="n"/>
-      <c r="U5" s="25" t="n"/>
-      <c r="V5" s="25" t="n"/>
-      <c r="W5" s="25" t="n"/>
-      <c r="X5" s="25" t="n"/>
-      <c r="Y5" s="25" t="n"/>
-      <c r="Z5" s="25" t="n"/>
-      <c r="AA5" s="25" t="n"/>
-      <c r="AB5" s="25" t="n"/>
-      <c r="AC5" s="25" t="n"/>
-      <c r="AD5" s="25" t="n"/>
+    <row r="5" ht="35" customHeight="1">
+      <c r="A5" s="29" t="n"/>
+      <c r="B5" s="30" t="n"/>
+      <c r="C5" s="31" t="n"/>
+      <c r="D5" s="31" t="n"/>
+      <c r="E5" s="31" t="n"/>
+      <c r="F5" s="30" t="n"/>
+      <c r="G5" s="30" t="inlineStr">
+        <is>
+          <t>RW200254-</t>
+        </is>
+      </c>
+      <c r="H5" s="30" t="n"/>
+      <c r="I5" s="30" t="inlineStr">
+        <is>
+          <t>RW200202-</t>
+        </is>
+      </c>
+      <c r="J5" s="30" t="n"/>
+      <c r="K5" s="30" t="n"/>
+      <c r="L5" s="30" t="inlineStr">
+        <is>
+          <t>RW200157-</t>
+        </is>
+      </c>
+      <c r="M5" s="30" t="n"/>
+      <c r="N5" s="30" t="n"/>
+      <c r="O5" s="30" t="n"/>
+      <c r="P5" s="30" t="n"/>
+      <c r="Q5" s="30" t="n"/>
+      <c r="R5" s="30" t="n"/>
+      <c r="S5" s="30" t="n"/>
+      <c r="T5" s="30" t="n"/>
+      <c r="U5" s="30" t="n"/>
+      <c r="V5" s="30" t="n"/>
+      <c r="W5" s="30" t="n"/>
+      <c r="X5" s="30" t="inlineStr">
+        <is>
+          <t>RW200037-</t>
+        </is>
+      </c>
+      <c r="Y5" s="30" t="n"/>
+      <c r="Z5" s="30" t="n"/>
+      <c r="AA5" s="30" t="n"/>
+      <c r="AB5" s="30" t="n"/>
+      <c r="AC5" s="30" t="n"/>
+      <c r="AD5" s="30" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="n"/>
+      <c r="A6" s="21" t="n"/>
       <c r="B6" s="16" t="inlineStr">
         <is>
           <t>E</t>
@@ -1224,40 +1278,60 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="35" customHeight="1" s="19">
-      <c r="A7" s="24" t="n"/>
-      <c r="B7" s="25" t="n"/>
-      <c r="C7" s="26" t="n"/>
-      <c r="D7" s="26" t="n"/>
-      <c r="E7" s="26" t="n"/>
-      <c r="F7" s="25" t="n"/>
-      <c r="G7" s="25" t="n"/>
-      <c r="H7" s="25" t="n"/>
-      <c r="I7" s="25" t="n"/>
-      <c r="J7" s="25" t="n"/>
-      <c r="K7" s="25" t="n"/>
-      <c r="L7" s="25" t="n"/>
-      <c r="M7" s="25" t="n"/>
-      <c r="N7" s="25" t="n"/>
-      <c r="O7" s="25" t="n"/>
-      <c r="P7" s="25" t="n"/>
-      <c r="Q7" s="25" t="n"/>
-      <c r="R7" s="25" t="n"/>
-      <c r="S7" s="25" t="n"/>
-      <c r="T7" s="25" t="n"/>
-      <c r="U7" s="25" t="n"/>
-      <c r="V7" s="25" t="n"/>
-      <c r="W7" s="25" t="n"/>
-      <c r="X7" s="25" t="n"/>
-      <c r="Y7" s="25" t="n"/>
-      <c r="Z7" s="25" t="n"/>
-      <c r="AA7" s="25" t="n"/>
-      <c r="AB7" s="25" t="n"/>
-      <c r="AC7" s="25" t="n"/>
-      <c r="AD7" s="25" t="n"/>
+    <row r="7" ht="35" customHeight="1">
+      <c r="A7" s="29" t="n"/>
+      <c r="B7" s="30" t="n"/>
+      <c r="C7" s="31" t="n"/>
+      <c r="D7" s="31" t="n"/>
+      <c r="E7" s="31" t="n"/>
+      <c r="F7" s="30" t="n"/>
+      <c r="G7" s="30" t="inlineStr">
+        <is>
+          <t>RW200211-</t>
+        </is>
+      </c>
+      <c r="H7" s="30" t="n"/>
+      <c r="I7" s="30" t="n"/>
+      <c r="J7" s="30" t="inlineStr">
+        <is>
+          <t>RW200272-</t>
+        </is>
+      </c>
+      <c r="K7" s="30" t="inlineStr">
+        <is>
+          <t>RW200206-</t>
+        </is>
+      </c>
+      <c r="L7" s="30" t="n"/>
+      <c r="M7" s="30" t="n"/>
+      <c r="N7" s="30" t="n"/>
+      <c r="O7" s="30" t="n"/>
+      <c r="P7" s="30" t="n"/>
+      <c r="Q7" s="30" t="inlineStr">
+        <is>
+          <t>RW200308-</t>
+        </is>
+      </c>
+      <c r="R7" s="30" t="n"/>
+      <c r="S7" s="30" t="n"/>
+      <c r="T7" s="30" t="n"/>
+      <c r="U7" s="30" t="n"/>
+      <c r="V7" s="30" t="n"/>
+      <c r="W7" s="30" t="n"/>
+      <c r="X7" s="30" t="inlineStr">
+        <is>
+          <t>RW200212-</t>
+        </is>
+      </c>
+      <c r="Y7" s="30" t="n"/>
+      <c r="Z7" s="30" t="n"/>
+      <c r="AA7" s="30" t="n"/>
+      <c r="AB7" s="30" t="n"/>
+      <c r="AC7" s="30" t="n"/>
+      <c r="AD7" s="30" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="17" t="n"/>
+      <c r="A8" s="21" t="n"/>
       <c r="B8" s="16" t="inlineStr">
         <is>
           <t>D</t>
@@ -1396,40 +1470,40 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="35" customHeight="1" s="19">
-      <c r="A9" s="24" t="n"/>
-      <c r="B9" s="25" t="n"/>
-      <c r="C9" s="26" t="n"/>
-      <c r="D9" s="26" t="n"/>
-      <c r="E9" s="26" t="n"/>
-      <c r="F9" s="25" t="n"/>
-      <c r="G9" s="25" t="n"/>
-      <c r="H9" s="25" t="n"/>
-      <c r="I9" s="25" t="n"/>
-      <c r="J9" s="25" t="n"/>
-      <c r="K9" s="25" t="n"/>
-      <c r="L9" s="25" t="n"/>
-      <c r="M9" s="25" t="n"/>
-      <c r="N9" s="25" t="n"/>
-      <c r="O9" s="25" t="n"/>
-      <c r="P9" s="25" t="n"/>
-      <c r="Q9" s="25" t="n"/>
-      <c r="R9" s="25" t="n"/>
-      <c r="S9" s="25" t="n"/>
-      <c r="T9" s="25" t="n"/>
-      <c r="U9" s="25" t="n"/>
-      <c r="V9" s="25" t="n"/>
-      <c r="W9" s="25" t="n"/>
-      <c r="X9" s="25" t="n"/>
-      <c r="Y9" s="25" t="n"/>
-      <c r="Z9" s="25" t="n"/>
-      <c r="AA9" s="25" t="n"/>
-      <c r="AB9" s="25" t="n"/>
-      <c r="AC9" s="25" t="n"/>
-      <c r="AD9" s="25" t="n"/>
+    <row r="9" ht="35" customHeight="1">
+      <c r="A9" s="29" t="n"/>
+      <c r="B9" s="30" t="n"/>
+      <c r="C9" s="31" t="n"/>
+      <c r="D9" s="31" t="n"/>
+      <c r="E9" s="31" t="n"/>
+      <c r="F9" s="30" t="n"/>
+      <c r="G9" s="30" t="n"/>
+      <c r="H9" s="30" t="n"/>
+      <c r="I9" s="30" t="n"/>
+      <c r="J9" s="30" t="n"/>
+      <c r="K9" s="30" t="n"/>
+      <c r="L9" s="30" t="n"/>
+      <c r="M9" s="30" t="n"/>
+      <c r="N9" s="30" t="n"/>
+      <c r="O9" s="30" t="n"/>
+      <c r="P9" s="30" t="n"/>
+      <c r="Q9" s="30" t="n"/>
+      <c r="R9" s="30" t="n"/>
+      <c r="S9" s="30" t="n"/>
+      <c r="T9" s="30" t="n"/>
+      <c r="U9" s="30" t="n"/>
+      <c r="V9" s="30" t="n"/>
+      <c r="W9" s="30" t="n"/>
+      <c r="X9" s="30" t="n"/>
+      <c r="Y9" s="30" t="n"/>
+      <c r="Z9" s="30" t="n"/>
+      <c r="AA9" s="30" t="n"/>
+      <c r="AB9" s="30" t="n"/>
+      <c r="AC9" s="30" t="n"/>
+      <c r="AD9" s="30" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="17" t="n"/>
+      <c r="A10" s="21" t="n"/>
       <c r="B10" s="16" t="inlineStr">
         <is>
           <t>C</t>
@@ -1568,40 +1642,40 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="35" customHeight="1" s="19">
-      <c r="A11" s="24" t="n"/>
-      <c r="B11" s="25" t="n"/>
-      <c r="C11" s="26" t="n"/>
-      <c r="D11" s="26" t="n"/>
-      <c r="E11" s="26" t="n"/>
-      <c r="F11" s="25" t="n"/>
-      <c r="G11" s="25" t="n"/>
-      <c r="H11" s="25" t="n"/>
-      <c r="I11" s="25" t="n"/>
-      <c r="J11" s="25" t="n"/>
-      <c r="K11" s="25" t="n"/>
-      <c r="L11" s="25" t="n"/>
-      <c r="M11" s="25" t="n"/>
-      <c r="N11" s="25" t="n"/>
-      <c r="O11" s="25" t="n"/>
-      <c r="P11" s="25" t="n"/>
-      <c r="Q11" s="25" t="n"/>
-      <c r="R11" s="25" t="n"/>
-      <c r="S11" s="25" t="n"/>
-      <c r="T11" s="25" t="n"/>
-      <c r="U11" s="25" t="n"/>
-      <c r="V11" s="25" t="n"/>
-      <c r="W11" s="25" t="n"/>
-      <c r="X11" s="25" t="n"/>
-      <c r="Y11" s="25" t="n"/>
-      <c r="Z11" s="25" t="n"/>
-      <c r="AA11" s="25" t="n"/>
-      <c r="AB11" s="25" t="n"/>
-      <c r="AC11" s="25" t="n"/>
-      <c r="AD11" s="25" t="n"/>
+    <row r="11" ht="35" customHeight="1">
+      <c r="A11" s="29" t="n"/>
+      <c r="B11" s="30" t="n"/>
+      <c r="C11" s="31" t="n"/>
+      <c r="D11" s="31" t="n"/>
+      <c r="E11" s="31" t="n"/>
+      <c r="F11" s="30" t="n"/>
+      <c r="G11" s="30" t="n"/>
+      <c r="H11" s="30" t="n"/>
+      <c r="I11" s="30" t="n"/>
+      <c r="J11" s="30" t="n"/>
+      <c r="K11" s="30" t="n"/>
+      <c r="L11" s="30" t="n"/>
+      <c r="M11" s="30" t="n"/>
+      <c r="N11" s="30" t="n"/>
+      <c r="O11" s="30" t="n"/>
+      <c r="P11" s="30" t="n"/>
+      <c r="Q11" s="30" t="n"/>
+      <c r="R11" s="30" t="n"/>
+      <c r="S11" s="30" t="n"/>
+      <c r="T11" s="30" t="n"/>
+      <c r="U11" s="30" t="n"/>
+      <c r="V11" s="30" t="n"/>
+      <c r="W11" s="30" t="n"/>
+      <c r="X11" s="30" t="n"/>
+      <c r="Y11" s="30" t="n"/>
+      <c r="Z11" s="30" t="n"/>
+      <c r="AA11" s="30" t="n"/>
+      <c r="AB11" s="30" t="n"/>
+      <c r="AC11" s="30" t="n"/>
+      <c r="AD11" s="30" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="17" t="n"/>
+      <c r="A12" s="21" t="n"/>
       <c r="B12" s="16" t="inlineStr">
         <is>
           <t>B</t>
@@ -1740,39 +1814,40 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="35" customHeight="1" s="19">
-      <c r="A13" s="27" t="n"/>
-      <c r="B13" s="25" t="n"/>
-      <c r="C13" s="25" t="n"/>
-      <c r="D13" s="25" t="n"/>
-      <c r="E13" s="25" t="n"/>
-      <c r="F13" s="25" t="n"/>
-      <c r="G13" s="25" t="n"/>
-      <c r="H13" s="25" t="n"/>
-      <c r="I13" s="25" t="n"/>
-      <c r="J13" s="25" t="n"/>
-      <c r="K13" s="25" t="n"/>
-      <c r="L13" s="25" t="n"/>
-      <c r="M13" s="25" t="n"/>
-      <c r="N13" s="25" t="n"/>
-      <c r="O13" s="25" t="n"/>
-      <c r="P13" s="25" t="n"/>
-      <c r="Q13" s="25" t="n"/>
-      <c r="R13" s="25" t="n"/>
-      <c r="S13" s="25" t="n"/>
-      <c r="T13" s="25" t="n"/>
-      <c r="U13" s="25" t="n"/>
-      <c r="V13" s="25" t="n"/>
-      <c r="W13" s="25" t="n"/>
-      <c r="X13" s="25" t="n"/>
-      <c r="Y13" s="25" t="n"/>
-      <c r="Z13" s="25" t="n"/>
-      <c r="AA13" s="25" t="n"/>
-      <c r="AB13" s="25" t="n"/>
-      <c r="AC13" s="25" t="n"/>
-      <c r="AD13" s="25" t="n"/>
+    <row r="13" ht="35" customHeight="1">
+      <c r="A13" s="29" t="n"/>
+      <c r="B13" s="30" t="n"/>
+      <c r="C13" s="30" t="n"/>
+      <c r="D13" s="30" t="n"/>
+      <c r="E13" s="30" t="n"/>
+      <c r="F13" s="30" t="n"/>
+      <c r="G13" s="30" t="n"/>
+      <c r="H13" s="30" t="n"/>
+      <c r="I13" s="30" t="n"/>
+      <c r="J13" s="30" t="n"/>
+      <c r="K13" s="30" t="n"/>
+      <c r="L13" s="30" t="n"/>
+      <c r="M13" s="30" t="n"/>
+      <c r="N13" s="30" t="n"/>
+      <c r="O13" s="30" t="n"/>
+      <c r="P13" s="30" t="n"/>
+      <c r="Q13" s="30" t="n"/>
+      <c r="R13" s="30" t="n"/>
+      <c r="S13" s="30" t="n"/>
+      <c r="T13" s="30" t="n"/>
+      <c r="U13" s="30" t="n"/>
+      <c r="V13" s="30" t="n"/>
+      <c r="W13" s="30" t="n"/>
+      <c r="X13" s="30" t="n"/>
+      <c r="Y13" s="30" t="n"/>
+      <c r="Z13" s="30" t="n"/>
+      <c r="AA13" s="30" t="n"/>
+      <c r="AB13" s="30" t="n"/>
+      <c r="AC13" s="30" t="n"/>
+      <c r="AD13" s="30" t="n"/>
     </row>
     <row r="14">
+      <c r="A14" s="21" t="n"/>
       <c r="B14" s="16" t="inlineStr">
         <is>
           <t>A</t>
@@ -1911,39 +1986,39 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="35" customHeight="1" s="19">
-      <c r="A15" s="28" t="n"/>
-      <c r="B15" s="25" t="n"/>
-      <c r="C15" s="26" t="n"/>
-      <c r="D15" s="26" t="n"/>
-      <c r="E15" s="26" t="n"/>
-      <c r="F15" s="26" t="n"/>
-      <c r="G15" s="26" t="n"/>
-      <c r="H15" s="26" t="n"/>
-      <c r="I15" s="26" t="n"/>
-      <c r="J15" s="26" t="n"/>
-      <c r="K15" s="26" t="n"/>
-      <c r="L15" s="26" t="n"/>
-      <c r="M15" s="26" t="n"/>
-      <c r="N15" s="26" t="n"/>
-      <c r="O15" s="26" t="n"/>
-      <c r="P15" s="26" t="n"/>
-      <c r="Q15" s="26" t="n"/>
-      <c r="R15" s="26" t="n"/>
-      <c r="S15" s="26" t="n"/>
-      <c r="T15" s="26" t="n"/>
-      <c r="U15" s="26" t="n"/>
-      <c r="V15" s="26" t="n"/>
-      <c r="W15" s="26" t="n"/>
-      <c r="X15" s="26" t="n"/>
-      <c r="Y15" s="26" t="n"/>
-      <c r="Z15" s="26" t="n"/>
-      <c r="AA15" s="26" t="n"/>
-      <c r="AB15" s="26" t="n"/>
-      <c r="AC15" s="26" t="n"/>
-      <c r="AD15" s="26" t="n"/>
+    <row r="15" ht="35" customHeight="1">
+      <c r="A15" s="29" t="n"/>
+      <c r="B15" s="30" t="n"/>
+      <c r="C15" s="31" t="n"/>
+      <c r="D15" s="31" t="n"/>
+      <c r="E15" s="31" t="n"/>
+      <c r="F15" s="31" t="n"/>
+      <c r="G15" s="31" t="n"/>
+      <c r="H15" s="31" t="n"/>
+      <c r="I15" s="31" t="n"/>
+      <c r="J15" s="31" t="n"/>
+      <c r="K15" s="31" t="n"/>
+      <c r="L15" s="31" t="n"/>
+      <c r="M15" s="31" t="n"/>
+      <c r="N15" s="31" t="n"/>
+      <c r="O15" s="31" t="n"/>
+      <c r="P15" s="31" t="n"/>
+      <c r="Q15" s="31" t="n"/>
+      <c r="R15" s="31" t="n"/>
+      <c r="S15" s="31" t="n"/>
+      <c r="T15" s="31" t="n"/>
+      <c r="U15" s="31" t="n"/>
+      <c r="V15" s="31" t="n"/>
+      <c r="W15" s="31" t="n"/>
+      <c r="X15" s="31" t="n"/>
+      <c r="Y15" s="31" t="n"/>
+      <c r="Z15" s="31" t="n"/>
+      <c r="AA15" s="31" t="n"/>
+      <c r="AB15" s="31" t="n"/>
+      <c r="AC15" s="31" t="n"/>
+      <c r="AD15" s="31" t="n"/>
     </row>
-    <row r="16" ht="17" customHeight="1" s="19">
+    <row r="16" ht="17" customHeight="1">
       <c r="A16" s="6" t="n"/>
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="inlineStr">
@@ -2339,41 +2414,61 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="35" customHeight="1" s="19">
-      <c r="A19" s="24" t="n"/>
-      <c r="B19" s="25" t="n"/>
-      <c r="C19" s="25" t="n"/>
-      <c r="D19" s="25" t="n"/>
-      <c r="E19" s="25" t="n"/>
-      <c r="F19" s="25" t="n"/>
-      <c r="G19" s="25" t="n"/>
-      <c r="H19" s="25" t="n"/>
-      <c r="I19" s="25" t="n"/>
-      <c r="J19" s="25" t="n"/>
-      <c r="K19" s="25" t="n"/>
-      <c r="L19" s="25" t="n"/>
-      <c r="M19" s="25" t="n"/>
-      <c r="N19" s="25" t="n"/>
-      <c r="O19" s="25" t="n"/>
-      <c r="P19" s="25" t="n"/>
-      <c r="Q19" s="25" t="n"/>
-      <c r="R19" s="25" t="n"/>
-      <c r="S19" s="25" t="n"/>
-      <c r="T19" s="25" t="n"/>
-      <c r="U19" s="25" t="n"/>
-      <c r="V19" s="25" t="n"/>
-      <c r="W19" s="25" t="n"/>
-      <c r="X19" s="25" t="n"/>
-      <c r="Y19" s="25" t="n"/>
-      <c r="Z19" s="25" t="n"/>
-      <c r="AA19" s="25" t="n"/>
-      <c r="AB19" s="25" t="inlineStr">
+    <row r="19" ht="35" customHeight="1">
+      <c r="A19" s="32" t="n"/>
+      <c r="B19" s="30" t="n"/>
+      <c r="C19" s="30" t="n"/>
+      <c r="D19" s="30" t="n"/>
+      <c r="E19" s="30" t="n"/>
+      <c r="F19" s="30" t="n"/>
+      <c r="G19" s="30" t="n"/>
+      <c r="H19" s="30" t="n"/>
+      <c r="I19" s="30" t="n"/>
+      <c r="J19" s="30" t="n"/>
+      <c r="K19" s="30" t="n"/>
+      <c r="L19" s="30" t="n"/>
+      <c r="M19" s="30" t="n"/>
+      <c r="N19" s="30" t="n"/>
+      <c r="O19" s="30" t="n"/>
+      <c r="P19" s="30" t="n"/>
+      <c r="Q19" s="30" t="n"/>
+      <c r="R19" s="30" t="n"/>
+      <c r="S19" s="30" t="n"/>
+      <c r="T19" s="30" t="inlineStr">
+        <is>
+          <t>B2000305-</t>
+        </is>
+      </c>
+      <c r="U19" s="30" t="inlineStr">
+        <is>
+          <t>b1000287-</t>
+        </is>
+      </c>
+      <c r="V19" s="30" t="inlineStr">
+        <is>
+          <t>B2011065-</t>
+        </is>
+      </c>
+      <c r="W19" s="30" t="n"/>
+      <c r="X19" s="30" t="n"/>
+      <c r="Y19" s="30" t="inlineStr">
+        <is>
+          <t>b1007311-</t>
+        </is>
+      </c>
+      <c r="Z19" s="30" t="n"/>
+      <c r="AA19" s="30" t="n"/>
+      <c r="AB19" s="30" t="inlineStr">
         <is>
           <t>B1007919-</t>
         </is>
       </c>
-      <c r="AC19" s="25" t="n"/>
-      <c r="AD19" s="25" t="n"/>
+      <c r="AC19" s="30" t="n"/>
+      <c r="AD19" s="30" t="inlineStr">
+        <is>
+          <t>b2000660-</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="17" t="n"/>
@@ -2523,123 +2618,134 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="35" customHeight="1" s="19">
-      <c r="A21" s="24" t="n"/>
-      <c r="B21" s="25" t="n"/>
-      <c r="C21" s="25" t="inlineStr">
+    <row r="21" ht="35" customHeight="1">
+      <c r="A21" s="32" t="n"/>
+      <c r="B21" s="30" t="n"/>
+      <c r="C21" s="30" t="inlineStr">
         <is>
           <t>B2010530-</t>
         </is>
       </c>
-      <c r="D21" s="25" t="n"/>
-      <c r="E21" s="25" t="inlineStr">
+      <c r="D21" s="30" t="inlineStr">
+        <is>
+          <t>B2010464-</t>
+        </is>
+      </c>
+      <c r="E21" s="30" t="inlineStr">
         <is>
           <t>b1000323-</t>
         </is>
       </c>
-      <c r="F21" s="25" t="inlineStr">
+      <c r="F21" s="30" t="inlineStr">
         <is>
           <t>b1000309-</t>
         </is>
       </c>
-      <c r="G21" s="25" t="inlineStr">
+      <c r="G21" s="30" t="inlineStr">
         <is>
           <t>B2011272-</t>
         </is>
       </c>
-      <c r="H21" s="25" t="inlineStr">
+      <c r="H21" s="30" t="inlineStr">
         <is>
           <t>B1006102-</t>
         </is>
       </c>
-      <c r="I21" s="25" t="inlineStr">
+      <c r="I21" s="30" t="inlineStr">
         <is>
           <t>B2010532-</t>
         </is>
       </c>
-      <c r="J21" s="25" t="inlineStr">
+      <c r="J21" s="30" t="inlineStr">
         <is>
           <t>B2010512-</t>
         </is>
       </c>
-      <c r="K21" s="25" t="inlineStr">
-        <is>
-          <t>B1006735-</t>
-        </is>
-      </c>
-      <c r="L21" s="25" t="n"/>
-      <c r="M21" s="25" t="inlineStr">
+      <c r="K21" s="30" t="inlineStr">
+        <is>
+          <t>B2010465-</t>
+        </is>
+      </c>
+      <c r="L21" s="30" t="n"/>
+      <c r="M21" s="30" t="inlineStr">
         <is>
           <t>m1017659-</t>
         </is>
       </c>
-      <c r="N21" s="25" t="inlineStr">
+      <c r="N21" s="30" t="inlineStr">
         <is>
           <t>B1000313-</t>
         </is>
       </c>
-      <c r="O21" s="25" t="inlineStr">
-        <is>
-          <t>B1006176-</t>
-        </is>
-      </c>
-      <c r="P21" s="25" t="n"/>
-      <c r="Q21" s="25" t="n"/>
-      <c r="R21" s="29" t="inlineStr">
-        <is>
-          <t>B2010458-
-B2011122-</t>
-        </is>
-      </c>
-      <c r="S21" s="25" t="inlineStr">
-        <is>
-          <t>B2010156-</t>
-        </is>
-      </c>
-      <c r="T21" s="25" t="inlineStr">
+      <c r="O21" s="30" t="n"/>
+      <c r="P21" s="30" t="inlineStr">
+        <is>
+          <t>b2011489-</t>
+        </is>
+      </c>
+      <c r="Q21" s="30" t="inlineStr">
+        <is>
+          <t>B2010458-</t>
+        </is>
+      </c>
+      <c r="R21" s="30" t="n"/>
+      <c r="S21" s="30" t="inlineStr">
+        <is>
+          <t>B1008877-</t>
+        </is>
+      </c>
+      <c r="T21" s="30" t="inlineStr">
         <is>
           <t>B1004997-</t>
         </is>
       </c>
-      <c r="U21" s="25" t="inlineStr">
+      <c r="U21" s="30" t="inlineStr">
         <is>
           <t>B2011290-</t>
         </is>
       </c>
-      <c r="V21" s="25" t="n"/>
-      <c r="W21" s="25" t="inlineStr">
+      <c r="V21" s="30" t="inlineStr">
+        <is>
+          <t>P1209364-</t>
+        </is>
+      </c>
+      <c r="W21" s="30" t="inlineStr">
         <is>
           <t>p1234159-</t>
         </is>
       </c>
-      <c r="X21" s="25" t="inlineStr">
+      <c r="X21" s="30" t="inlineStr">
         <is>
           <t>B2011317-</t>
         </is>
       </c>
-      <c r="Y21" s="25" t="inlineStr">
-        <is>
-          <t>B2011062-</t>
-        </is>
-      </c>
-      <c r="Z21" s="25" t="inlineStr">
+      <c r="Y21" s="30" t="inlineStr">
+        <is>
+          <t>B2011491-</t>
+        </is>
+      </c>
+      <c r="Z21" s="30" t="inlineStr">
         <is>
           <t>B2000859-</t>
         </is>
       </c>
-      <c r="AA21" s="25" t="n"/>
-      <c r="AB21" s="25" t="inlineStr">
+      <c r="AA21" s="30" t="inlineStr">
+        <is>
+          <t>B1006183-</t>
+        </is>
+      </c>
+      <c r="AB21" s="30" t="inlineStr">
         <is>
           <t>B2011283-</t>
         </is>
       </c>
-      <c r="AC21" s="29" t="inlineStr">
+      <c r="AC21" s="33" t="inlineStr">
         <is>
           <t>B2011308-
 P1229403-</t>
         </is>
       </c>
-      <c r="AD21" s="25" t="inlineStr">
+      <c r="AD21" s="30" t="inlineStr">
         <is>
           <t>B1008952-</t>
         </is>
@@ -2793,113 +2899,145 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="35" customHeight="1" s="19">
-      <c r="A23" s="24" t="n"/>
-      <c r="B23" s="25" t="n"/>
-      <c r="C23" s="25" t="n"/>
-      <c r="D23" s="25" t="inlineStr">
+    <row r="23" ht="35" customHeight="1">
+      <c r="A23" s="32" t="n"/>
+      <c r="B23" s="30" t="n"/>
+      <c r="C23" s="30" t="inlineStr">
+        <is>
+          <t>B1008831-</t>
+        </is>
+      </c>
+      <c r="D23" s="30" t="inlineStr">
         <is>
           <t>t2001237-</t>
         </is>
       </c>
-      <c r="E23" s="25" t="n"/>
-      <c r="F23" s="25" t="inlineStr">
+      <c r="E23" s="30" t="inlineStr">
+        <is>
+          <t>B2010925-</t>
+        </is>
+      </c>
+      <c r="F23" s="30" t="inlineStr">
         <is>
           <t>B2010514-</t>
         </is>
       </c>
-      <c r="G23" s="25" t="inlineStr">
+      <c r="G23" s="30" t="inlineStr">
         <is>
           <t>b1004719-</t>
         </is>
       </c>
-      <c r="H23" s="25" t="n"/>
-      <c r="I23" s="25" t="n"/>
-      <c r="J23" s="25" t="inlineStr">
+      <c r="H23" s="30" t="inlineStr">
+        <is>
+          <t>b2009951-</t>
+        </is>
+      </c>
+      <c r="I23" s="30" t="inlineStr">
+        <is>
+          <t>P1227414-</t>
+        </is>
+      </c>
+      <c r="J23" s="30" t="inlineStr">
         <is>
           <t>M1012367-</t>
         </is>
       </c>
-      <c r="K23" s="25" t="inlineStr">
+      <c r="K23" s="30" t="inlineStr">
         <is>
           <t>B2010521-</t>
         </is>
       </c>
-      <c r="L23" s="25" t="inlineStr">
-        <is>
-          <t>b1007931-</t>
-        </is>
-      </c>
-      <c r="M23" s="25" t="inlineStr">
+      <c r="L23" s="30" t="inlineStr">
+        <is>
+          <t>B2012313-</t>
+        </is>
+      </c>
+      <c r="M23" s="30" t="inlineStr">
         <is>
           <t>b2010463-</t>
         </is>
       </c>
-      <c r="N23" s="25" t="inlineStr">
+      <c r="N23" s="30" t="inlineStr">
         <is>
           <t>b2000081-</t>
         </is>
       </c>
-      <c r="O23" s="25" t="n"/>
-      <c r="P23" s="25" t="inlineStr">
-        <is>
-          <t>A1002450-</t>
-        </is>
-      </c>
-      <c r="Q23" s="25" t="inlineStr">
+      <c r="O23" s="30" t="inlineStr">
+        <is>
+          <t>B2010111-</t>
+        </is>
+      </c>
+      <c r="P23" s="30" t="inlineStr">
+        <is>
+          <t>B2000018-</t>
+        </is>
+      </c>
+      <c r="Q23" s="30" t="inlineStr">
+        <is>
+          <t>B2011500-</t>
+        </is>
+      </c>
+      <c r="R23" s="30" t="inlineStr">
         <is>
           <t>B2000933-</t>
         </is>
       </c>
-      <c r="R23" s="25" t="n"/>
-      <c r="S23" s="25" t="n"/>
-      <c r="T23" s="25" t="n"/>
-      <c r="U23" s="25" t="inlineStr">
+      <c r="S23" s="30" t="inlineStr">
+        <is>
+          <t>B1009009-</t>
+        </is>
+      </c>
+      <c r="T23" s="30" t="inlineStr">
+        <is>
+          <t>X1000258-</t>
+        </is>
+      </c>
+      <c r="U23" s="30" t="inlineStr">
         <is>
           <t>B2011297-</t>
         </is>
       </c>
-      <c r="V23" s="25" t="inlineStr">
+      <c r="V23" s="30" t="inlineStr">
         <is>
           <t>B2010874-</t>
         </is>
       </c>
-      <c r="W23" s="25" t="inlineStr">
+      <c r="W23" s="30" t="inlineStr">
         <is>
           <t>B1006288-</t>
         </is>
       </c>
-      <c r="X23" s="25" t="inlineStr">
-        <is>
-          <t>B2000448-</t>
-        </is>
-      </c>
-      <c r="Y23" s="25" t="inlineStr">
+      <c r="X23" s="30" t="inlineStr">
+        <is>
+          <t>B2000465-</t>
+        </is>
+      </c>
+      <c r="Y23" s="30" t="inlineStr">
         <is>
           <t>B1005034-</t>
         </is>
       </c>
-      <c r="Z23" s="25" t="inlineStr">
+      <c r="Z23" s="30" t="inlineStr">
         <is>
           <t>B2011292-</t>
         </is>
       </c>
-      <c r="AA23" s="25" t="inlineStr">
-        <is>
-          <t>B2000455-</t>
-        </is>
-      </c>
-      <c r="AB23" s="25" t="inlineStr">
+      <c r="AA23" s="30" t="inlineStr">
+        <is>
+          <t>B2011496-</t>
+        </is>
+      </c>
+      <c r="AB23" s="30" t="inlineStr">
         <is>
           <t>B2011293-</t>
         </is>
       </c>
-      <c r="AC23" s="25" t="inlineStr">
+      <c r="AC23" s="30" t="inlineStr">
         <is>
           <t>t1000756-</t>
         </is>
       </c>
-      <c r="AD23" s="25" t="inlineStr">
+      <c r="AD23" s="30" t="inlineStr">
         <is>
           <t>B1000063-</t>
         </is>
@@ -3053,121 +3191,141 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="35" customHeight="1" s="19">
-      <c r="A25" s="24" t="n"/>
-      <c r="B25" s="25" t="n"/>
-      <c r="C25" s="25" t="inlineStr">
+    <row r="25" ht="35" customHeight="1">
+      <c r="A25" s="32" t="n"/>
+      <c r="B25" s="30" t="n"/>
+      <c r="C25" s="30" t="inlineStr">
         <is>
           <t>T2000320-</t>
         </is>
       </c>
-      <c r="D25" s="25" t="inlineStr">
+      <c r="D25" s="30" t="inlineStr">
         <is>
           <t>t2001172-</t>
         </is>
       </c>
-      <c r="E25" s="25" t="inlineStr">
+      <c r="E25" s="30" t="inlineStr">
         <is>
           <t>B1006724-</t>
         </is>
       </c>
-      <c r="F25" s="25" t="inlineStr">
+      <c r="F25" s="30" t="inlineStr">
         <is>
           <t>t2001262-</t>
         </is>
       </c>
-      <c r="G25" s="25" t="inlineStr">
+      <c r="G25" s="30" t="inlineStr">
         <is>
           <t>M1013183-</t>
         </is>
       </c>
-      <c r="H25" s="25" t="inlineStr">
+      <c r="H25" s="30" t="inlineStr">
         <is>
           <t>B2010631-</t>
         </is>
       </c>
-      <c r="I25" s="25" t="n"/>
-      <c r="J25" s="25" t="inlineStr">
+      <c r="I25" s="30" t="inlineStr">
+        <is>
+          <t>T2003054-</t>
+        </is>
+      </c>
+      <c r="J25" s="30" t="inlineStr">
         <is>
           <t>B2010529-</t>
         </is>
       </c>
-      <c r="K25" s="25" t="inlineStr">
+      <c r="K25" s="30" t="inlineStr">
         <is>
           <t>M1016841-</t>
         </is>
       </c>
-      <c r="L25" s="25" t="inlineStr">
-        <is>
-          <t>b1007290-</t>
-        </is>
-      </c>
-      <c r="M25" s="25" t="inlineStr">
+      <c r="L25" s="30" t="inlineStr">
+        <is>
+          <t>B1007772-</t>
+        </is>
+      </c>
+      <c r="M25" s="30" t="inlineStr">
         <is>
           <t>B2010466-</t>
         </is>
       </c>
-      <c r="N25" s="25" t="n"/>
-      <c r="O25" s="25" t="inlineStr">
+      <c r="N25" s="30" t="n"/>
+      <c r="O25" s="30" t="inlineStr">
         <is>
           <t>B2000474-</t>
         </is>
       </c>
-      <c r="P25" s="25" t="inlineStr">
+      <c r="P25" s="30" t="inlineStr">
         <is>
           <t>B2010884-</t>
         </is>
       </c>
-      <c r="Q25" s="25" t="inlineStr">
-        <is>
-          <t>B1006751-</t>
-        </is>
-      </c>
-      <c r="R25" s="25" t="n"/>
-      <c r="S25" s="25" t="inlineStr">
-        <is>
-          <t>T2001332-</t>
-        </is>
-      </c>
-      <c r="T25" s="25" t="n"/>
-      <c r="U25" s="25" t="n"/>
-      <c r="V25" s="25" t="inlineStr">
+      <c r="Q25" s="30" t="inlineStr">
+        <is>
+          <t>B2000412-</t>
+        </is>
+      </c>
+      <c r="R25" s="30" t="inlineStr">
+        <is>
+          <t>B1006465-</t>
+        </is>
+      </c>
+      <c r="S25" s="30" t="inlineStr">
+        <is>
+          <t>X1000208-</t>
+        </is>
+      </c>
+      <c r="T25" s="30" t="inlineStr">
+        <is>
+          <t>t2001958-</t>
+        </is>
+      </c>
+      <c r="U25" s="30" t="inlineStr">
+        <is>
+          <t>T2000236-</t>
+        </is>
+      </c>
+      <c r="V25" s="30" t="inlineStr">
         <is>
           <t>B2011305-</t>
         </is>
       </c>
-      <c r="W25" s="25" t="inlineStr">
+      <c r="W25" s="30" t="inlineStr">
         <is>
           <t>B2000144-</t>
         </is>
       </c>
-      <c r="X25" s="25" t="inlineStr">
+      <c r="X25" s="30" t="inlineStr">
         <is>
           <t>b2010452-</t>
         </is>
       </c>
-      <c r="Y25" s="25" t="inlineStr">
+      <c r="Y25" s="30" t="inlineStr">
         <is>
           <t>p1225708-</t>
         </is>
       </c>
-      <c r="Z25" s="25" t="n"/>
-      <c r="AA25" s="25" t="inlineStr">
-        <is>
-          <t>B2010336-</t>
-        </is>
-      </c>
-      <c r="AB25" s="25" t="inlineStr">
-        <is>
-          <t>P1204055-</t>
-        </is>
-      </c>
-      <c r="AC25" s="25" t="inlineStr">
+      <c r="Z25" s="30" t="inlineStr">
+        <is>
+          <t>t2003030-</t>
+        </is>
+      </c>
+      <c r="AA25" s="30" t="inlineStr">
+        <is>
+          <t>B2000987-</t>
+        </is>
+      </c>
+      <c r="AB25" s="30" t="inlineStr">
+        <is>
+          <t>b1007722-</t>
+        </is>
+      </c>
+      <c r="AC25" s="30" t="inlineStr">
         <is>
           <t>B2011319-</t>
         </is>
       </c>
-      <c r="AD25" s="25" t="inlineStr">
+      <c r="AD25" s="30" t="inlineStr">
         <is>
           <t>B2011306-</t>
         </is>
@@ -3321,115 +3479,127 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="35" customHeight="1" s="19">
-      <c r="A27" s="24" t="n"/>
-      <c r="B27" s="25" t="n"/>
-      <c r="C27" s="25" t="n"/>
-      <c r="D27" s="25" t="inlineStr">
-        <is>
-          <t>B1006750-</t>
-        </is>
-      </c>
-      <c r="E27" s="25" t="inlineStr">
+    <row r="27" ht="35" customHeight="1">
+      <c r="A27" s="32" t="n"/>
+      <c r="B27" s="30" t="n"/>
+      <c r="C27" s="30" t="inlineStr">
+        <is>
+          <t>T1000424-</t>
+        </is>
+      </c>
+      <c r="D27" s="30" t="inlineStr">
+        <is>
+          <t>B2012223-</t>
+        </is>
+      </c>
+      <c r="E27" s="30" t="inlineStr">
         <is>
           <t>T2000278-</t>
         </is>
       </c>
-      <c r="F27" s="25" t="inlineStr">
-        <is>
-          <t>B1004816-</t>
-        </is>
-      </c>
-      <c r="G27" s="25" t="inlineStr">
-        <is>
-          <t>t2001235-</t>
-        </is>
-      </c>
-      <c r="H27" s="25" t="inlineStr">
+      <c r="F27" s="30" t="inlineStr">
+        <is>
+          <t>B1004352-</t>
+        </is>
+      </c>
+      <c r="G27" s="30" t="inlineStr">
+        <is>
+          <t>T2003282-</t>
+        </is>
+      </c>
+      <c r="H27" s="30" t="inlineStr">
         <is>
           <t>B2010471-</t>
         </is>
       </c>
-      <c r="I27" s="25" t="inlineStr">
-        <is>
-          <t>b2010464-</t>
-        </is>
-      </c>
-      <c r="J27" s="25" t="inlineStr">
-        <is>
-          <t>B1008099-</t>
-        </is>
-      </c>
-      <c r="K27" s="25" t="inlineStr">
-        <is>
-          <t>t2001256-</t>
-        </is>
-      </c>
-      <c r="L27" s="25" t="n"/>
-      <c r="M27" s="25" t="inlineStr">
+      <c r="I27" s="30" t="inlineStr">
+        <is>
+          <t>B1005655-</t>
+        </is>
+      </c>
+      <c r="J27" s="30" t="inlineStr">
+        <is>
+          <t>B2000670-</t>
+        </is>
+      </c>
+      <c r="K27" s="30" t="inlineStr">
+        <is>
+          <t>b2012266-</t>
+        </is>
+      </c>
+      <c r="L27" s="30" t="n"/>
+      <c r="M27" s="30" t="inlineStr">
         <is>
           <t>b2010467-</t>
         </is>
       </c>
-      <c r="N27" s="25" t="n"/>
-      <c r="O27" s="25" t="n"/>
-      <c r="P27" s="25" t="n"/>
-      <c r="Q27" s="25" t="n"/>
-      <c r="R27" s="25" t="n"/>
-      <c r="S27" s="25" t="inlineStr">
+      <c r="N27" s="30" t="n"/>
+      <c r="O27" s="30" t="n"/>
+      <c r="P27" s="30" t="n"/>
+      <c r="Q27" s="30" t="inlineStr">
+        <is>
+          <t>B1004679-</t>
+        </is>
+      </c>
+      <c r="R27" s="30" t="inlineStr">
+        <is>
+          <t>B2000385-</t>
+        </is>
+      </c>
+      <c r="S27" s="30" t="inlineStr">
         <is>
           <t>B1008466-</t>
         </is>
       </c>
-      <c r="T27" s="25" t="inlineStr">
-        <is>
-          <t>B1006730-</t>
-        </is>
-      </c>
-      <c r="U27" s="25" t="inlineStr">
-        <is>
-          <t>B1000287-</t>
-        </is>
-      </c>
-      <c r="V27" s="25" t="inlineStr">
-        <is>
-          <t>T2001716-</t>
-        </is>
-      </c>
-      <c r="W27" s="25" t="inlineStr">
-        <is>
-          <t>M1015375-</t>
-        </is>
-      </c>
-      <c r="X27" s="25" t="inlineStr">
+      <c r="T27" s="30" t="inlineStr">
+        <is>
+          <t>B2011497-</t>
+        </is>
+      </c>
+      <c r="U27" s="30" t="n"/>
+      <c r="V27" s="30" t="inlineStr">
+        <is>
+          <t>B2000108-</t>
+        </is>
+      </c>
+      <c r="W27" s="30" t="inlineStr">
+        <is>
+          <t>T2001399-</t>
+        </is>
+      </c>
+      <c r="X27" s="30" t="inlineStr">
         <is>
           <t>U1000142-</t>
         </is>
       </c>
-      <c r="Y27" s="25" t="inlineStr">
-        <is>
-          <t>b1007311-</t>
-        </is>
-      </c>
-      <c r="Z27" s="25" t="inlineStr">
+      <c r="Y27" s="30" t="inlineStr">
+        <is>
+          <t>B2012335-</t>
+        </is>
+      </c>
+      <c r="Z27" s="30" t="inlineStr">
         <is>
           <t>b2010469-</t>
         </is>
       </c>
-      <c r="AA27" s="25" t="inlineStr">
-        <is>
-          <t>B1008292-</t>
-        </is>
-      </c>
-      <c r="AB27" s="25" t="n"/>
-      <c r="AC27" s="25" t="inlineStr">
+      <c r="AA27" s="30" t="inlineStr">
+        <is>
+          <t>B1008343-</t>
+        </is>
+      </c>
+      <c r="AB27" s="30" t="inlineStr">
+        <is>
+          <t>T1000662-</t>
+        </is>
+      </c>
+      <c r="AC27" s="30" t="inlineStr">
         <is>
           <t>B2000449-</t>
         </is>
       </c>
-      <c r="AD27" s="25" t="inlineStr">
-        <is>
-          <t>b2000660-</t>
+      <c r="AD27" s="30" t="inlineStr">
+        <is>
+          <t>X1000262-</t>
         </is>
       </c>
     </row>
@@ -3581,117 +3751,146 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="35" customHeight="1" s="19">
-      <c r="A29" s="24" t="n"/>
-      <c r="B29" s="25" t="n"/>
-      <c r="C29" s="25" t="inlineStr">
-        <is>
-          <t>B2011339-</t>
-        </is>
-      </c>
-      <c r="D29" s="25" t="inlineStr">
+    <row r="29" ht="35" customHeight="1">
+      <c r="A29" s="32" t="n"/>
+      <c r="B29" s="30" t="n"/>
+      <c r="C29" s="30" t="inlineStr">
+        <is>
+          <t>M1015708-</t>
+        </is>
+      </c>
+      <c r="D29" s="30" t="inlineStr">
         <is>
           <t>P1222156-</t>
         </is>
       </c>
-      <c r="E29" s="25" t="n"/>
-      <c r="F29" s="25" t="inlineStr">
+      <c r="E29" s="30" t="inlineStr">
+        <is>
+          <t>B2012207-</t>
+        </is>
+      </c>
+      <c r="F29" s="30" t="inlineStr">
         <is>
           <t>B2010470-</t>
         </is>
       </c>
-      <c r="G29" s="25" t="inlineStr">
+      <c r="G29" s="30" t="inlineStr">
         <is>
           <t>B1007305-</t>
         </is>
       </c>
-      <c r="H29" s="25" t="inlineStr">
-        <is>
-          <t>B2000436-</t>
-        </is>
-      </c>
-      <c r="I29" s="25" t="inlineStr">
+      <c r="H29" s="30" t="inlineStr">
+        <is>
+          <t>M1012525-</t>
+        </is>
+      </c>
+      <c r="I29" s="30" t="inlineStr">
         <is>
           <t>P1208170-</t>
         </is>
       </c>
-      <c r="J29" s="25" t="n"/>
-      <c r="K29" s="25" t="inlineStr">
-        <is>
-          <t>b1004254-</t>
-        </is>
-      </c>
-      <c r="L29" s="25" t="inlineStr">
-        <is>
-          <t>M1016856-</t>
-        </is>
-      </c>
-      <c r="M29" s="25" t="inlineStr">
+      <c r="J29" s="30" t="inlineStr">
+        <is>
+          <t>T2003346-</t>
+        </is>
+      </c>
+      <c r="K29" s="30" t="inlineStr">
+        <is>
+          <t>M1016609-</t>
+        </is>
+      </c>
+      <c r="L29" s="30" t="inlineStr">
+        <is>
+          <t>B2011444-</t>
+        </is>
+      </c>
+      <c r="M29" s="30" t="inlineStr">
         <is>
           <t>m1009084-</t>
         </is>
       </c>
-      <c r="N29" s="25" t="inlineStr">
-        <is>
-          <t>B1004553-</t>
-        </is>
-      </c>
-      <c r="O29" s="25" t="n"/>
-      <c r="P29" s="25" t="n"/>
-      <c r="Q29" s="25" t="n"/>
-      <c r="R29" s="25" t="n"/>
-      <c r="S29" s="25" t="inlineStr">
-        <is>
-          <t>B1005973-</t>
-        </is>
-      </c>
-      <c r="T29" s="25" t="inlineStr">
+      <c r="N29" s="30" t="inlineStr">
+        <is>
+          <t>B1008752-</t>
+        </is>
+      </c>
+      <c r="O29" s="30" t="inlineStr">
+        <is>
+          <t>B1005663-</t>
+        </is>
+      </c>
+      <c r="P29" s="30" t="n"/>
+      <c r="Q29" s="30" t="inlineStr">
+        <is>
+          <t>B1004853-</t>
+        </is>
+      </c>
+      <c r="R29" s="30" t="inlineStr">
+        <is>
+          <t>B1006945-</t>
+        </is>
+      </c>
+      <c r="S29" s="30" t="inlineStr">
+        <is>
+          <t>B2010623-</t>
+        </is>
+      </c>
+      <c r="T29" s="30" t="inlineStr">
         <is>
           <t>B1004824-</t>
         </is>
       </c>
-      <c r="U29" s="25" t="inlineStr">
-        <is>
-          <t>B2010656-</t>
-        </is>
-      </c>
-      <c r="V29" s="25" t="inlineStr">
-        <is>
-          <t>B2011065-</t>
-        </is>
-      </c>
-      <c r="W29" s="25" t="inlineStr">
+      <c r="U29" s="30" t="inlineStr">
+        <is>
+          <t>T2001332-</t>
+        </is>
+      </c>
+      <c r="V29" s="30" t="inlineStr">
+        <is>
+          <t>B2012330-</t>
+        </is>
+      </c>
+      <c r="W29" s="30" t="inlineStr">
         <is>
           <t>b2010462-</t>
         </is>
       </c>
-      <c r="X29" s="25" t="inlineStr">
-        <is>
-          <t>B2010925-</t>
-        </is>
-      </c>
-      <c r="Y29" s="25" t="inlineStr">
+      <c r="X29" s="30" t="inlineStr">
+        <is>
+          <t>B1008429-</t>
+        </is>
+      </c>
+      <c r="Y29" s="30" t="inlineStr">
         <is>
           <t>P1208896-</t>
         </is>
       </c>
-      <c r="Z29" s="25" t="n"/>
-      <c r="AA29" s="25" t="inlineStr">
+      <c r="Z29" s="30" t="inlineStr">
+        <is>
+          <t>b1006162-</t>
+        </is>
+      </c>
+      <c r="AA29" s="30" t="inlineStr">
         <is>
           <t>B1005051-</t>
         </is>
       </c>
-      <c r="AB29" s="25" t="inlineStr">
-        <is>
-          <t>b1008376-</t>
-        </is>
-      </c>
-      <c r="AC29" s="25" t="inlineStr">
+      <c r="AB29" s="30" t="inlineStr">
+        <is>
+          <t>B2010145-</t>
+        </is>
+      </c>
+      <c r="AC29" s="30" t="inlineStr">
         <is>
           <t>B2000049-</t>
         </is>
       </c>
-      <c r="AD29" s="25" t="n"/>
+      <c r="AD29" s="33" t="inlineStr">
+        <is>
+          <t>P1234133-
+T2002453-</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="17" t="n"/>
@@ -3841,75 +4040,88 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="35" customHeight="1" s="19">
-      <c r="A31" s="27" t="n"/>
-      <c r="B31" s="25" t="n"/>
-      <c r="C31" s="26" t="inlineStr">
-        <is>
-          <t>b1006821-</t>
-        </is>
-      </c>
-      <c r="D31" s="26" t="n"/>
-      <c r="E31" s="26" t="n"/>
-      <c r="F31" s="26" t="n"/>
-      <c r="G31" s="26" t="n"/>
-      <c r="H31" s="26" t="n"/>
-      <c r="I31" s="26" t="n"/>
-      <c r="J31" s="26" t="n"/>
-      <c r="K31" s="26" t="n"/>
-      <c r="L31" s="26" t="n"/>
-      <c r="M31" s="26" t="n"/>
-      <c r="N31" s="26" t="n"/>
-      <c r="O31" s="26" t="n"/>
-      <c r="P31" s="26" t="n"/>
-      <c r="Q31" s="26" t="n"/>
-      <c r="R31" s="26" t="n"/>
-      <c r="S31" s="26" t="n"/>
-      <c r="T31" s="26" t="n"/>
-      <c r="U31" s="26" t="n"/>
-      <c r="V31" s="26" t="n"/>
-      <c r="W31" s="26" t="inlineStr">
-        <is>
-          <t>B1007269-</t>
-        </is>
-      </c>
-      <c r="X31" s="26" t="inlineStr">
-        <is>
-          <t>B1007271-</t>
-        </is>
-      </c>
-      <c r="Y31" s="26" t="inlineStr">
-        <is>
-          <t>b2010511-</t>
-        </is>
-      </c>
-      <c r="Z31" s="26" t="inlineStr">
-        <is>
-          <t>b1006162-</t>
-        </is>
-      </c>
-      <c r="AA31" s="26" t="inlineStr">
-        <is>
-          <t>B2010660-</t>
-        </is>
-      </c>
-      <c r="AB31" s="26" t="inlineStr">
-        <is>
-          <t>B2010465-</t>
-        </is>
-      </c>
-      <c r="AC31" s="26" t="inlineStr">
-        <is>
-          <t>P1201125-</t>
-        </is>
-      </c>
-      <c r="AD31" s="26" t="inlineStr">
-        <is>
-          <t>P1207123-</t>
+    <row r="31" ht="35" customHeight="1">
+      <c r="A31" s="34" t="n"/>
+      <c r="B31" s="30" t="n"/>
+      <c r="C31" s="31" t="inlineStr">
+        <is>
+          <t>B1004715-</t>
+        </is>
+      </c>
+      <c r="D31" s="31" t="n"/>
+      <c r="E31" s="31" t="n"/>
+      <c r="F31" s="31" t="n"/>
+      <c r="G31" s="31" t="inlineStr">
+        <is>
+          <t>RW200479-</t>
+        </is>
+      </c>
+      <c r="H31" s="31" t="n"/>
+      <c r="I31" s="31" t="inlineStr">
+        <is>
+          <t>B1004348-</t>
+        </is>
+      </c>
+      <c r="J31" s="31" t="inlineStr">
+        <is>
+          <t>B1004350-</t>
+        </is>
+      </c>
+      <c r="K31" s="31" t="n"/>
+      <c r="L31" s="31" t="n"/>
+      <c r="M31" s="31" t="n"/>
+      <c r="N31" s="31" t="n"/>
+      <c r="O31" s="31" t="n"/>
+      <c r="P31" s="31" t="n"/>
+      <c r="Q31" s="31" t="n"/>
+      <c r="R31" s="31" t="n"/>
+      <c r="S31" s="31" t="n"/>
+      <c r="T31" s="31" t="n"/>
+      <c r="U31" s="31" t="inlineStr">
+        <is>
+          <t>B1005658-</t>
+        </is>
+      </c>
+      <c r="V31" s="31" t="n"/>
+      <c r="W31" s="31" t="inlineStr">
+        <is>
+          <t>B2012221-</t>
+        </is>
+      </c>
+      <c r="X31" s="31" t="inlineStr">
+        <is>
+          <t>B2012227-</t>
+        </is>
+      </c>
+      <c r="Y31" s="35" t="inlineStr">
+        <is>
+          <t>B1008813-
+X1000222-</t>
+        </is>
+      </c>
+      <c r="Z31" s="31" t="inlineStr">
+        <is>
+          <t>B1004428-</t>
+        </is>
+      </c>
+      <c r="AA31" s="31" t="inlineStr">
+        <is>
+          <t>b2012284-</t>
+        </is>
+      </c>
+      <c r="AB31" s="31" t="n"/>
+      <c r="AC31" s="31" t="inlineStr">
+        <is>
+          <t>P1229817-</t>
+        </is>
+      </c>
+      <c r="AD31" s="31" t="inlineStr">
+        <is>
+          <t>B1004440-</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="21" customHeight="1" s="19">
+    <row r="32" ht="21" customHeight="1">
       <c r="A32" s="10" t="n"/>
       <c r="B32" s="10" t="n"/>
       <c r="C32" s="11" t="n"/>
@@ -3943,7 +4155,7 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A2:A15"/>
     <mergeCell ref="A18:A31"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
